--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 3 Shirts and Pants 2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 3 Shirts and Pants 2.xlsx_with_dialog_acts.xlsx
@@ -615,12 +615,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1443,12 +1443,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1875,12 +1875,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2131,12 +2131,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2167,12 +2167,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2239,12 +2239,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2419,12 +2419,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2635,12 +2635,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2707,12 +2707,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
